--- a/data/detect_hist.xlsx
+++ b/data/detect_hist.xlsx
@@ -1070,7 +1070,7 @@
     <t>IR1, IR2, IR3A0</t>
   </si>
   <si>
-    <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IR4A0</t>
+    <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0</t>
   </si>
   <si>
     <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0</t>
@@ -1094,13 +1094,13 @@
     <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IMLB0, IR5B0, IR5A0</t>
   </si>
   <si>
-    <t>IR1, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0</t>
+    <t>IR1, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0</t>
   </si>
   <si>
     <t>IR1, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0</t>
   </si>
   <si>
-    <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IMLA0</t>
+    <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IMLA0, IR5B0, IR5A0</t>
   </si>
   <si>
     <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IR4A0, IMLB0, IMLA0</t>
@@ -1295,10 +1295,10 @@
     <t>IR2, IR3B0, IR5B0, IR5A0</t>
   </si>
   <si>
-    <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IMLB0, IMLA0, IMNAHWA0, IR3B0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0</t>
-  </si>
-  <si>
-    <t>IR1, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0</t>
+    <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IMLB0, IMLA0, IMNAHWA0, IR3B0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0</t>
+  </si>
+  <si>
+    <t>IR1, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0</t>
   </si>
   <si>
     <t>IR1, IR3B0, IR4B0, IR4A0, IR4B0, IR4A0, IMLB0, IMNAHWA0, IR5B0, IR5A0, IR5B0</t>
@@ -1346,9 +1346,6 @@
     <t>IR1, IR2, IR3B0, IR4B0, IR4A0</t>
   </si>
   <si>
-    <t>IR1, IR2, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IR4A0, IR4B0, IR4A0</t>
-  </si>
-  <si>
     <t>IR1, IR3B0, IR3A0, IR4B0, IR4A0, IR4B0, IMLB0, IMLA0</t>
   </si>
   <si>
@@ -2166,6 +2163,9 @@
   </si>
   <si>
     <t>10.4575115740741</t>
+  </si>
+  <si>
+    <t>0.778564814814815</t>
   </si>
   <si>
     <t>0.876539351851852</t>
@@ -2654,10 +2654,10 @@
         <v>310</v>
       </c>
       <c r="AB3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4">
@@ -2799,13 +2799,13 @@
         <v>43242.77043981482</v>
       </c>
       <c r="AA5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AB5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AC5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6">
@@ -2952,10 +2952,10 @@
         <v>310</v>
       </c>
       <c r="AB7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AC7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8">
@@ -3103,10 +3103,10 @@
         <v>43261.711643518516</v>
       </c>
       <c r="AA9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AB9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AC9" t="s">
         <v>310</v>
@@ -3184,13 +3184,13 @@
         <v>43212.493738425925</v>
       </c>
       <c r="AA10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AB10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AC10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11">
@@ -3403,10 +3403,10 @@
         <v>43169.69729166667</v>
       </c>
       <c r="AA13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AC13" t="s">
         <v>310</v>
@@ -3488,7 +3488,7 @@
         <v>310</v>
       </c>
       <c r="AC14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15">
@@ -3557,10 +3557,10 @@
         <v>43169.90576388889</v>
       </c>
       <c r="AA15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AC15" t="s">
         <v>310</v>
@@ -3638,13 +3638,13 @@
         <v>43190.934537037036</v>
       </c>
       <c r="AA16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AB16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AC16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17">
@@ -3724,10 +3724,10 @@
         <v>310</v>
       </c>
       <c r="AB17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AC17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18">
@@ -3796,10 +3796,10 @@
         <v>43173.65142361111</v>
       </c>
       <c r="AA18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AB18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AC18" t="s">
         <v>310</v>
@@ -3877,13 +3877,13 @@
         <v>43205.61927083333</v>
       </c>
       <c r="AA19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AB19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AC19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20">
@@ -3962,7 +3962,7 @@
         <v>310</v>
       </c>
       <c r="AC20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21">
@@ -4031,10 +4031,10 @@
         <v>43223.90688657407</v>
       </c>
       <c r="AA21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AB21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AC21" t="s">
         <v>310</v>
@@ -4110,13 +4110,13 @@
         <v>43199.37490740741</v>
       </c>
       <c r="AA22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AC22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23">
@@ -4189,13 +4189,13 @@
         <v>43249.27855324074</v>
       </c>
       <c r="AA23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AC23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24">
@@ -4266,10 +4266,10 @@
         <v>43253.70726851852</v>
       </c>
       <c r="AA24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AB24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AC24" t="s">
         <v>310</v>
@@ -4345,13 +4345,13 @@
         <v>43249.69138888889</v>
       </c>
       <c r="AA25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AC25" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="26">
@@ -4497,13 +4497,13 @@
         <v>43168.85664351852</v>
       </c>
       <c r="AA27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AC27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28">
@@ -4639,7 +4639,7 @@
         <v>43258.75938657408</v>
       </c>
       <c r="AA29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AB29" t="s">
         <v>310</v>
@@ -4712,7 +4712,7 @@
         <v>43268.32027777778</v>
       </c>
       <c r="AA30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AB30" t="s">
         <v>310</v>
@@ -4785,7 +4785,7 @@
         <v>43255.67984953704</v>
       </c>
       <c r="AA31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AB31" t="s">
         <v>310</v>
@@ -4856,7 +4856,7 @@
         <v>43257.73097222223</v>
       </c>
       <c r="AA32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AB32" t="s">
         <v>310</v>
@@ -4929,7 +4929,7 @@
         <v>43278.84092592592</v>
       </c>
       <c r="AA33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AB33" t="s">
         <v>310</v>
@@ -4997,7 +4997,7 @@
         <v>352</v>
       </c>
       <c r="V34" t="n" s="4">
-        <v>43286.93789351852</v>
+        <v>43287.349814814814</v>
       </c>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
@@ -5006,10 +5006,10 @@
         <v>43271.17671296296</v>
       </c>
       <c r="AA34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AB34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC34" t="s">
         <v>310</v>
@@ -5083,10 +5083,10 @@
         <v>43262.57980324074</v>
       </c>
       <c r="AA35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AB35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AC35" t="s">
         <v>310</v>
@@ -5156,7 +5156,7 @@
         <v>43265.73459490741</v>
       </c>
       <c r="AA36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AB36" t="s">
         <v>310</v>
@@ -5312,10 +5312,10 @@
         <v>43261.736238425925</v>
       </c>
       <c r="AA38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AB38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AC38" t="s">
         <v>310</v>
@@ -5460,10 +5460,10 @@
         <v>43261.8155787037</v>
       </c>
       <c r="AA40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AB40" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AC40" t="s">
         <v>310</v>
@@ -5541,10 +5541,10 @@
         <v>43262.7085300926</v>
       </c>
       <c r="AA41" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB41" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AC41" t="s">
         <v>310</v>
@@ -5626,13 +5626,13 @@
         <v>43262.64686342592</v>
       </c>
       <c r="AA42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AB42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AC42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="43">
@@ -5697,7 +5697,7 @@
         <v>43276.78538194444</v>
       </c>
       <c r="AA43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AB43" t="s">
         <v>310</v>
@@ -5905,7 +5905,7 @@
         <v>360</v>
       </c>
       <c r="V46" t="n" s="4">
-        <v>43284.94599537037</v>
+        <v>43287.11373842593</v>
       </c>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
@@ -5914,10 +5914,10 @@
         <v>43270.58390046297</v>
       </c>
       <c r="AA46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AB46" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AC46" t="s">
         <v>310</v>
@@ -5989,10 +5989,10 @@
         <v>43263.594039351854</v>
       </c>
       <c r="AA47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AB47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AC47" t="s">
         <v>310</v>
@@ -6062,7 +6062,7 @@
         <v>43270.21090277778</v>
       </c>
       <c r="AA48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AB48" t="s">
         <v>310</v>
@@ -6085,13 +6085,13 @@
         <v>293</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F49" t="s">
         <v>306</v>
       </c>
       <c r="G49" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H49" t="n" s="2">
         <v>43273.0</v>
@@ -6112,9 +6112,11 @@
         <v>43286.68888888889</v>
       </c>
       <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
+      <c r="O49" t="n" s="4">
+        <v>43287.41070601852</v>
+      </c>
       <c r="P49" t="n" s="4">
-        <v>43286.69299768518</v>
+        <v>43287.411053240736</v>
       </c>
       <c r="Q49" t="n">
         <v>11.0</v>
@@ -6123,10 +6125,10 @@
         <v>313</v>
       </c>
       <c r="S49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T49" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="U49" t="s">
         <v>362</v>
@@ -6138,18 +6140,20 @@
         <v>43286.69299768518</v>
       </c>
       <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
+      <c r="Y49" t="n" s="4">
+        <v>43287.411053240736</v>
+      </c>
       <c r="Z49" t="n" s="4">
         <v>43276.48959490741</v>
       </c>
       <c r="AA49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AB49" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AC49" t="s">
-        <v>310</v>
+        <v>717</v>
       </c>
     </row>
     <row r="50">
@@ -6224,10 +6228,10 @@
         <v>43264.69326388889</v>
       </c>
       <c r="AA50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB50" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AC50" t="s">
         <v>310</v>
@@ -6305,10 +6309,10 @@
         <v>43260.6040162037</v>
       </c>
       <c r="AA51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AB51" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AC51" t="s">
         <v>310</v>
@@ -6457,10 +6461,10 @@
         <v>43259.605717592596</v>
       </c>
       <c r="AA53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB53" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AC53" t="s">
         <v>310</v>
@@ -6534,10 +6538,10 @@
         <v>43271.97596064815</v>
       </c>
       <c r="AA54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AB54" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AC54" t="s">
         <v>310</v>
@@ -6607,7 +6611,7 @@
         <v>43258.526620370365</v>
       </c>
       <c r="AA55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AB55" t="s">
         <v>310</v>
@@ -6692,10 +6696,10 @@
         <v>43264.6388425926</v>
       </c>
       <c r="AA56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB56" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AC56" t="s">
         <v>310</v>
@@ -6765,7 +6769,7 @@
         <v>43276.24438657408</v>
       </c>
       <c r="AA57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AB57" t="s">
         <v>310</v>
@@ -6886,7 +6890,7 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" t="n" s="4">
-        <v>43286.9474537037</v>
+        <v>43287.188125</v>
       </c>
       <c r="Q59" t="n">
         <v>11.0</v>
@@ -6901,10 +6905,10 @@
         <v>317</v>
       </c>
       <c r="U59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="V59" t="n" s="4">
-        <v>43286.9474537037</v>
+        <v>43287.19025462963</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -6913,10 +6917,10 @@
         <v>43266.49650462963</v>
       </c>
       <c r="AA59" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AB59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AC59" t="s">
         <v>310</v>
@@ -7130,10 +7134,10 @@
         <v>43259.510624999995</v>
       </c>
       <c r="AA62" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AB62" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AC62" t="s">
         <v>310</v>
@@ -7219,10 +7223,10 @@
         <v>43259.53065972222</v>
       </c>
       <c r="AA63" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB63" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AC63" t="s">
         <v>718</v>
@@ -7296,10 +7300,10 @@
         <v>43256.84680555556</v>
       </c>
       <c r="AA64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AB64" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AC64" t="s">
         <v>310</v>
@@ -7377,10 +7381,10 @@
         <v>43261.7509837963</v>
       </c>
       <c r="AA65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AB65" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AC65" t="s">
         <v>310</v>
@@ -7450,7 +7454,7 @@
         <v>43273.605046296296</v>
       </c>
       <c r="AA66" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AB66" t="s">
         <v>310</v>
@@ -7523,7 +7527,7 @@
         <v>43268.41732638889</v>
       </c>
       <c r="AA67" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AB67" t="s">
         <v>310</v>
@@ -7608,10 +7612,10 @@
         <v>43260.55903935185</v>
       </c>
       <c r="AA68" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AB68" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AC68" t="s">
         <v>310</v>
@@ -7681,7 +7685,7 @@
         <v>43277.820023148146</v>
       </c>
       <c r="AA69" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AB69" t="s">
         <v>310</v>
@@ -7825,7 +7829,7 @@
         <v>43277.57336805556</v>
       </c>
       <c r="AA71" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AB71" t="s">
         <v>310</v>
@@ -8044,10 +8048,10 @@
         <v>43257.465</v>
       </c>
       <c r="AA74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AB74" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AC74" t="s">
         <v>310</v>
@@ -8117,7 +8121,7 @@
         <v>43260.46105324074</v>
       </c>
       <c r="AA75" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AB75" t="s">
         <v>310</v>
@@ -8271,10 +8275,10 @@
         <v>43236.70815972222</v>
       </c>
       <c r="AA77" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AB77" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC77" t="s">
         <v>719</v>
@@ -8423,10 +8427,10 @@
         <v>43208.72787037037</v>
       </c>
       <c r="AA79" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AB79" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AC79" t="s">
         <v>720</v>
@@ -8575,7 +8579,7 @@
         <v>43209.39064814815</v>
       </c>
       <c r="AA81" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AB81" t="s">
         <v>310</v>
@@ -8715,7 +8719,7 @@
         <v>43235.26059027778</v>
       </c>
       <c r="AA83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AB83" t="s">
         <v>310</v>
@@ -8794,10 +8798,10 @@
         <v>43171.94378472222</v>
       </c>
       <c r="AA84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AB84" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AC84" t="s">
         <v>722</v>
@@ -8869,10 +8873,10 @@
         <v>43215.668391203704</v>
       </c>
       <c r="AA85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AB85" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AC85" t="s">
         <v>310</v>
@@ -9082,7 +9086,7 @@
         <v>43235.56872685185</v>
       </c>
       <c r="AA88" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AB88" t="s">
         <v>310</v>
@@ -9159,10 +9163,10 @@
         <v>43226.529444444444</v>
       </c>
       <c r="AA89" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AB89" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AC89" t="s">
         <v>310</v>
@@ -9236,10 +9240,10 @@
         <v>43200.45340277778</v>
       </c>
       <c r="AA90" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AB90" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AC90" t="s">
         <v>310</v>
@@ -9386,7 +9390,7 @@
         <v>43179.379791666666</v>
       </c>
       <c r="AA92" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AB92" t="s">
         <v>310</v>
@@ -9457,7 +9461,7 @@
         <v>43228.17101851852</v>
       </c>
       <c r="AA93" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AB93" t="s">
         <v>310</v>
@@ -9536,10 +9540,10 @@
         <v>43209.37430555555</v>
       </c>
       <c r="AA94" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AB94" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AC94" t="s">
         <v>724</v>
@@ -9609,7 +9613,7 @@
         <v>43224.38403935185</v>
       </c>
       <c r="AA95" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AB95" t="s">
         <v>310</v>
@@ -9690,10 +9694,10 @@
         <v>43178.7015625</v>
       </c>
       <c r="AA96" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AB96" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC96" t="s">
         <v>725</v>
@@ -9846,10 +9850,10 @@
         <v>43235.410208333335</v>
       </c>
       <c r="AA98" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AB98" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AC98" t="s">
         <v>726</v>
@@ -9925,10 +9929,10 @@
         <v>43244.85005787037</v>
       </c>
       <c r="AA99" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AB99" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AC99" t="s">
         <v>727</v>
@@ -10004,10 +10008,10 @@
         <v>43238.82740740741</v>
       </c>
       <c r="AA100" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AB100" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AC100" t="s">
         <v>728</v>
@@ -10146,7 +10150,7 @@
         <v>43204.6997337963</v>
       </c>
       <c r="AA102" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AB102" t="s">
         <v>310</v>
@@ -10227,10 +10231,10 @@
         <v>43194.596932870365</v>
       </c>
       <c r="AA103" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AB103" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AC103" t="s">
         <v>729</v>
@@ -10300,7 +10304,7 @@
         <v>43168.61004629629</v>
       </c>
       <c r="AA104" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AB104" t="s">
         <v>310</v>
@@ -10381,10 +10385,10 @@
         <v>43177.572650462964</v>
       </c>
       <c r="AA105" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AB105" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AC105" t="s">
         <v>730</v>
@@ -10669,7 +10673,7 @@
         <v>43253.427152777775</v>
       </c>
       <c r="AA109" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AB109" t="s">
         <v>310</v>
@@ -10742,7 +10746,7 @@
         <v>43232.72170138889</v>
       </c>
       <c r="AA110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AB110" t="s">
         <v>310</v>
@@ -10955,7 +10959,7 @@
         <v>43223.565567129626</v>
       </c>
       <c r="AA113" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AB113" t="s">
         <v>310</v>
@@ -11176,10 +11180,10 @@
         <v>43169.74444444444</v>
       </c>
       <c r="AA116" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AB116" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AC116" t="s">
         <v>732</v>
@@ -11328,10 +11332,10 @@
         <v>43169.04356481481</v>
       </c>
       <c r="AA118" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AB118" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AC118" t="s">
         <v>310</v>
@@ -11401,7 +11405,7 @@
         <v>43186.58457175926</v>
       </c>
       <c r="AA119" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AB119" t="s">
         <v>310</v>
@@ -11543,7 +11547,7 @@
         <v>43201.230370370366</v>
       </c>
       <c r="AA121" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB121" t="s">
         <v>310</v>
@@ -11694,7 +11698,7 @@
         <v>310</v>
       </c>
       <c r="AB123" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AC123" t="s">
         <v>734</v>
@@ -11772,10 +11776,10 @@
         <v>43177.813321759255</v>
       </c>
       <c r="AA124" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AB124" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AC124" t="s">
         <v>735</v>
@@ -11843,7 +11847,7 @@
         <v>43168.49486111111</v>
       </c>
       <c r="AA125" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB125" t="s">
         <v>310</v>
@@ -11999,10 +12003,10 @@
         <v>43172.51165509259</v>
       </c>
       <c r="AA127" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB127" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AC127" t="s">
         <v>737</v>
@@ -12070,7 +12074,7 @@
         <v>43215.37983796296</v>
       </c>
       <c r="AA128" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB128" t="s">
         <v>310</v>
@@ -12151,10 +12155,10 @@
         <v>43228.575636574074</v>
       </c>
       <c r="AA129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AB129" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AC129" t="s">
         <v>738</v>
@@ -12228,10 +12232,10 @@
         <v>43204.74141203704</v>
       </c>
       <c r="AA130" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AB130" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AC130" t="s">
         <v>310</v>
@@ -12299,7 +12303,7 @@
         <v>43217.58112268518</v>
       </c>
       <c r="AA131" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AB131" t="s">
         <v>310</v>
@@ -12538,7 +12542,7 @@
         <v>43211.58621527778</v>
       </c>
       <c r="AA134" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AB134" t="s">
         <v>310</v>
@@ -12615,10 +12619,10 @@
         <v>43207.48402777778</v>
       </c>
       <c r="AA135" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AB135" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AC135" t="s">
         <v>310</v>
@@ -12696,10 +12700,10 @@
         <v>43205.723750000005</v>
       </c>
       <c r="AA136" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AB136" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AC136" t="s">
         <v>741</v>
@@ -12777,10 +12781,10 @@
         <v>43222.62105324074</v>
       </c>
       <c r="AA137" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AB137" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AC137" t="s">
         <v>742</v>
@@ -12850,7 +12854,7 @@
         <v>43169.565625</v>
       </c>
       <c r="AA138" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AB138" t="s">
         <v>310</v>
@@ -13063,7 +13067,7 @@
         <v>43212.90590277778</v>
       </c>
       <c r="AA141" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AB141" t="s">
         <v>310</v>
@@ -13142,10 +13146,10 @@
         <v>43221.36776620371</v>
       </c>
       <c r="AA142" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AB142" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AC142" t="s">
         <v>743</v>
@@ -13284,7 +13288,7 @@
         <v>43189.51217592593</v>
       </c>
       <c r="AA144" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AB144" t="s">
         <v>310</v>
@@ -13452,10 +13456,10 @@
         <v>43169.753645833334</v>
       </c>
       <c r="AA146" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AB146" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AC146" t="s">
         <v>745</v>
@@ -13604,10 +13608,10 @@
         <v>43235.311574074076</v>
       </c>
       <c r="AA148" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AB148" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AC148" t="s">
         <v>746</v>
@@ -13683,10 +13687,10 @@
         <v>43176.546064814815</v>
       </c>
       <c r="AA149" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AB149" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC149" t="s">
         <v>747</v>
@@ -13764,10 +13768,10 @@
         <v>43205.37641203703</v>
       </c>
       <c r="AA150" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AB150" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AC150" t="s">
         <v>748</v>
@@ -13912,7 +13916,7 @@
         <v>43235.543437500004</v>
       </c>
       <c r="AA152" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AB152" t="s">
         <v>310</v>
@@ -14196,7 +14200,7 @@
         <v>43216.57100694445</v>
       </c>
       <c r="AA156" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AB156" t="s">
         <v>310</v>
@@ -14342,7 +14346,7 @@
         <v>43237.7508912037</v>
       </c>
       <c r="AA158" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB158" t="s">
         <v>310</v>
@@ -14423,10 +14427,10 @@
         <v>43207.50947916666</v>
       </c>
       <c r="AA159" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AB159" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AC159" t="s">
         <v>750</v>
@@ -14654,10 +14658,10 @@
         <v>43210.44609953703</v>
       </c>
       <c r="AA162" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AB162" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AC162" t="s">
         <v>752</v>
@@ -14816,10 +14820,10 @@
         <v>43239.75341435186</v>
       </c>
       <c r="AA164" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AB164" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AC164" t="s">
         <v>753</v>
@@ -14895,10 +14899,10 @@
         <v>43234.471770833334</v>
       </c>
       <c r="AA165" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AB165" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AC165" t="s">
         <v>754</v>
@@ -15193,7 +15197,7 @@
         <v>43212.660891203705</v>
       </c>
       <c r="AA169" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AB169" t="s">
         <v>310</v>
@@ -15547,7 +15551,7 @@
         <v>310</v>
       </c>
       <c r="AB174" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AC174" t="s">
         <v>756</v>
@@ -15698,10 +15702,10 @@
         <v>43240.28331018519</v>
       </c>
       <c r="AA176" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB176" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AC176" t="s">
         <v>757</v>
@@ -15771,7 +15775,7 @@
         <v>43180.40121527778</v>
       </c>
       <c r="AA177" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AB177" t="s">
         <v>310</v>
@@ -15850,10 +15854,10 @@
         <v>43242.189375</v>
       </c>
       <c r="AA178" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AB178" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC178" t="s">
         <v>758</v>
@@ -15996,7 +16000,7 @@
         <v>43212.69653935185</v>
       </c>
       <c r="AA180" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AB180" t="s">
         <v>310</v>
@@ -16073,10 +16077,10 @@
         <v>43216.3960300926</v>
       </c>
       <c r="AA181" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB181" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AC181" t="s">
         <v>310</v>
@@ -16160,10 +16164,10 @@
         <v>43236.523263888885</v>
       </c>
       <c r="AA182" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AB182" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AC182" t="s">
         <v>759</v>
@@ -16231,7 +16235,7 @@
         <v>43217.69724537037</v>
       </c>
       <c r="AA183" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AB183" t="s">
         <v>310</v>
@@ -16316,7 +16320,7 @@
         <v>43205.55071759259</v>
       </c>
       <c r="AA184" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AB184" t="s">
         <v>310</v>
@@ -16393,10 +16397,10 @@
         <v>43181.48269675926</v>
       </c>
       <c r="AA185" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AB185" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AC185" t="s">
         <v>310</v>
@@ -16464,7 +16468,7 @@
         <v>43255.57896990741</v>
       </c>
       <c r="AA186" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AB186" t="s">
         <v>310</v>
@@ -16543,10 +16547,10 @@
         <v>43231.70570601852</v>
       </c>
       <c r="AA187" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AB187" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AC187" t="s">
         <v>760</v>
@@ -16616,7 +16620,7 @@
         <v>43203.727997685186</v>
       </c>
       <c r="AA188" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AB188" t="s">
         <v>310</v>
@@ -16687,7 +16691,7 @@
         <v>43204.61783564815</v>
       </c>
       <c r="AA189" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB189" t="s">
         <v>310</v>
@@ -17259,7 +17263,7 @@
         <v>43168.731828703705</v>
       </c>
       <c r="AA197" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AB197" t="s">
         <v>310</v>
@@ -17340,10 +17344,10 @@
         <v>43169.740532407406</v>
       </c>
       <c r="AA198" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AB198" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC198" t="s">
         <v>762</v>
@@ -17638,10 +17642,10 @@
         <v>43221.81925925926</v>
       </c>
       <c r="AA202" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AB202" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC202" t="s">
         <v>310</v>
@@ -17861,10 +17865,10 @@
         <v>43241.25394675926</v>
       </c>
       <c r="AA205" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AB205" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AC205" t="s">
         <v>310</v>
@@ -17932,7 +17936,7 @@
         <v>43177.71680555555</v>
       </c>
       <c r="AA206" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AB206" t="s">
         <v>310</v>
@@ -18005,7 +18009,7 @@
         <v>43235.79077546296</v>
       </c>
       <c r="AA207" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AB207" t="s">
         <v>310</v>
@@ -18230,10 +18234,10 @@
         <v>43243.23103009259</v>
       </c>
       <c r="AA210" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AB210" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AC210" t="s">
         <v>765</v>
@@ -18372,7 +18376,7 @@
         <v>43176.77328703704</v>
       </c>
       <c r="AA212" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AB212" t="s">
         <v>310</v>
@@ -18447,7 +18451,7 @@
         <v>43238.55145833333</v>
       </c>
       <c r="AA213" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AB213" t="s">
         <v>310</v>
@@ -18520,7 +18524,7 @@
         <v>43279.60165509259</v>
       </c>
       <c r="AA214" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AB214" t="s">
         <v>310</v>
@@ -18593,7 +18597,7 @@
         <v>43276.867372685185</v>
       </c>
       <c r="AA215" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AB215" t="s">
         <v>310</v>
@@ -18665,7 +18669,7 @@
         <v>427</v>
       </c>
       <c r="V216" t="n" s="4">
-        <v>43283.918333333335</v>
+        <v>43287.19493055556</v>
       </c>
       <c r="W216" t="n" s="4">
         <v>43271.8684375</v>
@@ -18678,10 +18682,10 @@
         <v>43255.63247685185</v>
       </c>
       <c r="AA216" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB216" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AC216" t="s">
         <v>310</v>
@@ -18744,7 +18748,7 @@
         <v>428</v>
       </c>
       <c r="V217" t="n" s="4">
-        <v>43286.97659722222</v>
+        <v>43287.266817129625</v>
       </c>
       <c r="W217" s="4"/>
       <c r="X217" s="4"/>
@@ -18753,10 +18757,10 @@
         <v>43278.53445601852</v>
       </c>
       <c r="AA217" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AB217" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AC217" t="s">
         <v>310</v>
@@ -18840,10 +18844,10 @@
         <v>43245.600381944445</v>
       </c>
       <c r="AA218" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AB218" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AC218" t="s">
         <v>766</v>
@@ -18921,10 +18925,10 @@
         <v>43258.78337962963</v>
       </c>
       <c r="AA219" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AB219" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AC219" t="s">
         <v>310</v>
@@ -18996,10 +19000,10 @@
         <v>43276.75064814815</v>
       </c>
       <c r="AA220" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AB220" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AC220" t="s">
         <v>310</v>
@@ -19077,10 +19081,10 @@
         <v>43277.46429398148</v>
       </c>
       <c r="AA221" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AB221" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AC221" t="s">
         <v>310</v>
@@ -19150,7 +19154,7 @@
         <v>43213.48351851852</v>
       </c>
       <c r="AA222" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AB222" t="s">
         <v>310</v>
@@ -19513,7 +19517,7 @@
         <v>43181.563425925924</v>
       </c>
       <c r="AA227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AB227" t="s">
         <v>310</v>
@@ -19584,7 +19588,7 @@
         <v>43217.736446759256</v>
       </c>
       <c r="AA228" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AB228" t="s">
         <v>310</v>
@@ -19665,10 +19669,10 @@
         <v>43225.57601851852</v>
       </c>
       <c r="AA229" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AB229" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AC229" t="s">
         <v>767</v>
@@ -19738,7 +19742,7 @@
         <v>43212.5356712963</v>
       </c>
       <c r="AA230" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AB230" t="s">
         <v>310</v>
@@ -19885,7 +19889,7 @@
         <v>310</v>
       </c>
       <c r="AB232" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AC232" t="s">
         <v>768</v>
@@ -20111,10 +20115,10 @@
         <v>43214.77222222222</v>
       </c>
       <c r="AA235" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AB235" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AC235" t="s">
         <v>770</v>
@@ -20184,7 +20188,7 @@
         <v>43179.59333333334</v>
       </c>
       <c r="AA236" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AB236" t="s">
         <v>310</v>
@@ -20257,7 +20261,7 @@
         <v>43204.35144675926</v>
       </c>
       <c r="AA237" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AB237" t="s">
         <v>310</v>
@@ -20401,7 +20405,7 @@
         <v>43210.21092592593</v>
       </c>
       <c r="AA239" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AB239" t="s">
         <v>310</v>
@@ -20543,7 +20547,7 @@
         <v>43192.58306712963</v>
       </c>
       <c r="AA241" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB241" t="s">
         <v>310</v>
@@ -20770,10 +20774,10 @@
         <v>43169.858831018515</v>
       </c>
       <c r="AA244" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB244" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AC244" t="s">
         <v>772</v>
@@ -20922,10 +20926,10 @@
         <v>43252.52116898148</v>
       </c>
       <c r="AA246" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AB246" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AC246" t="s">
         <v>310</v>
@@ -21007,10 +21011,10 @@
         <v>43242.3440625</v>
       </c>
       <c r="AA247" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AB247" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AC247" t="s">
         <v>310</v>
@@ -21155,10 +21159,10 @@
         <v>43270.30979166667</v>
       </c>
       <c r="AA249" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB249" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AC249" t="s">
         <v>310</v>
@@ -21228,7 +21232,7 @@
         <v>43253.66545138889</v>
       </c>
       <c r="AA250" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AB250" t="s">
         <v>310</v>
@@ -21293,7 +21297,7 @@
         <v>317</v>
       </c>
       <c r="U251" t="s">
-        <v>444</v>
+        <v>352</v>
       </c>
       <c r="V251" t="n" s="4">
         <v>43277.91274305555</v>
@@ -21305,10 +21309,10 @@
         <v>43262.67821759259</v>
       </c>
       <c r="AA251" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AB251" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AC251" t="s">
         <v>310</v>
@@ -21378,7 +21382,7 @@
         <v>43258.495833333334</v>
       </c>
       <c r="AA252" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AB252" t="s">
         <v>310</v>
@@ -21451,7 +21455,7 @@
         <v>43275.9015162037</v>
       </c>
       <c r="AA253" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AB253" t="s">
         <v>310</v>
@@ -21524,7 +21528,7 @@
         <v>43270.589224537034</v>
       </c>
       <c r="AA254" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB254" t="s">
         <v>310</v>
@@ -21597,7 +21601,7 @@
         <v>43257.21461805556</v>
       </c>
       <c r="AA255" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AB255" t="s">
         <v>310</v>
@@ -21670,7 +21674,7 @@
         <v>43270.60990740741</v>
       </c>
       <c r="AA256" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AB256" t="s">
         <v>310</v>
@@ -21743,7 +21747,7 @@
         <v>43270.56796296296</v>
       </c>
       <c r="AA257" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AB257" t="s">
         <v>310</v>
@@ -21808,7 +21812,7 @@
         <v>322</v>
       </c>
       <c r="U258" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V258" t="n" s="4">
         <v>43286.12472222222</v>
@@ -21822,10 +21826,10 @@
         <v>43274.447129629625</v>
       </c>
       <c r="AA258" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AB258" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AC258" t="s">
         <v>310</v>
@@ -21895,7 +21899,7 @@
         <v>43276.348541666666</v>
       </c>
       <c r="AA259" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AB259" t="s">
         <v>310</v>
@@ -21962,7 +21966,7 @@
         <v>323</v>
       </c>
       <c r="U260" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V260" t="n" s="4">
         <v>43274.855729166666</v>
@@ -21976,10 +21980,10 @@
         <v>43249.40194444444</v>
       </c>
       <c r="AA260" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AB260" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AC260" t="s">
         <v>310</v>
